--- a/Trainingdata_sheet.xlsx
+++ b/Trainingdata_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9510" windowHeight="8745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="52">
   <si>
     <t>990 elements (max mesh size 0.09)</t>
   </si>
@@ -113,9 +113,6 @@
     <t>2D</t>
   </si>
   <si>
-    <t>100k</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>chamber infos</t>
   </si>
   <si>
-    <t>Ø1</t>
-  </si>
-  <si>
     <t>cell_radius</t>
   </si>
   <si>
@@ -144,16 +138,73 @@
   </si>
   <si>
     <t>2Dcoarse</t>
+  </si>
+  <si>
+    <t>[2 3]</t>
+  </si>
+  <si>
+    <t>3Dcoarse</t>
+  </si>
+  <si>
+    <t>[0.05 0.3]</t>
+  </si>
+  <si>
+    <t>3 layers [1.5, 1 , 1 ; 1, 0.8, 0.4; 0.8, 0.3, 0.2]</t>
+  </si>
+  <si>
+    <t>3rd number in row - radius ratio</t>
+  </si>
+  <si>
+    <t>1st-2nd number conduct range</t>
+  </si>
+  <si>
+    <t>50k</t>
+  </si>
+  <si>
+    <t>2D_16e_adad_cell3_SNR20dB_50k</t>
+  </si>
+  <si>
+    <t>2D_16e_advol_cell3_SNR20dB_50k</t>
+  </si>
+  <si>
+    <t>2D_16e_opop_cell3_SNR20dB_50k</t>
+  </si>
+  <si>
+    <t>2D_16e_adad_cell3_anti_SNR20dB_50k</t>
+  </si>
+  <si>
+    <t>2D_16e_adad_cell3_SNR60dB_50k</t>
+  </si>
+  <si>
+    <t>2D_16e_adad_cell10_SNR20dB_50k</t>
+  </si>
+  <si>
+    <t>2Dcoarse_16e_adad_cell3_SNR20dB_50k</t>
+  </si>
+  <si>
+    <t>3Dcoarse_16e_adad_cell3_SNR20dB_50k</t>
+  </si>
+  <si>
+    <t>_16e__cell_anti_</t>
+  </si>
+  <si>
+    <t>Ø2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -657,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,9 +725,9 @@
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="37.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
     <col min="13" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -834,6 +885,16 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
@@ -842,7 +903,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -863,7 +924,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>23</v>
@@ -875,22 +936,22 @@
         <v>19</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>CONCATENATE(B12,"_",E12,"e_",F12,G12,"_cell",I12,"_",IF(M12="no","","anti_"),IF(N12=0,"",CONCATENATE("SNR",N12,"dB_")),H12)</f>
-        <v>2D_16e_adad_cell3_SNR20dB_100k</v>
+        <v>2D_16e_adad_cell3_SNR20dB_50k</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1">
         <v>0.05</v>
@@ -905,33 +966,40 @@
         <v>8</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1">
         <v>3</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>20</v>
       </c>
       <c r="P12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" ref="A13:A23" si="0">CONCATENATE(B13,"_",E13,"e_",F13,G13,"_cell",I13,"_",IF(M13="no","","anti_"),IF(N13=0,"",CONCATENATE("SNR",N13,"dB_")),H13)</f>
-        <v>2D_16e_advol_cell3_SNR20dB_100k</v>
+        <v>2D_16e_advol_cell3_SNR20dB_50k</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1">
         <v>0.05</v>
@@ -943,18 +1011,25 @@
         <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I13" s="1">
         <v>3</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>20</v>
@@ -963,13 +1038,13 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2D_16e_opop_cell3_SNR20dB_100k</v>
+        <v>2D_16e_opop_cell3_SNR20dB_50k</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1">
         <v>0.05</v>
@@ -984,15 +1059,22 @@
         <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>20</v>
@@ -1001,13 +1083,13 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2D_16e_adad_cell3_anti_SNR20dB_100k</v>
+        <v>2D_16e_adad_cell3_anti_SNR20dB_50k</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1">
         <v>0.05</v>
@@ -1022,15 +1104,22 @@
         <v>8</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I15" s="1">
         <v>3</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>20</v>
@@ -1039,13 +1128,13 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2D_16e_adad_cell3_SNR60dB_100k</v>
+        <v>2D_16e_adad_cell3_SNR60dB_50k</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1">
         <v>0.05</v>
@@ -1060,15 +1149,22 @@
         <v>8</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I16" s="1">
         <v>3</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>60</v>
@@ -1077,13 +1173,13 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2D_16e_adad_cell10_SNR20dB_100k</v>
+        <v>2D_16e_adad_cell10_SNR20dB_50k</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1">
         <v>0.05</v>
@@ -1098,15 +1194,22 @@
         <v>8</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>20</v>
@@ -1115,13 +1218,13 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2Dcoarse_16e_adad_cell3_SNR20dB_100k</v>
+        <v>2Dcoarse_16e_adad_cell3_SNR20dB_50k</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1">
         <v>0.09</v>
@@ -1136,15 +1239,22 @@
         <v>8</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I18" s="1">
         <v>3</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>20</v>
@@ -1153,23 +1263,47 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>_16e__cell_anti_</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>3Dcoarse_16e_adad_cell3_SNR20dB_50k</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.09</v>
+      </c>
       <c r="E19" s="1">
         <v>16</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
@@ -1178,7 +1312,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
@@ -1199,7 +1333,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
@@ -1220,7 +1354,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
@@ -1241,7 +1375,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
@@ -1254,6 +1388,66 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1266,6 +1460,7 @@
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="F5:H5"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Trainingdata_sheet.xlsx
+++ b/Trainingdata_sheet.xlsx
@@ -711,7 +711,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Trainingdata_sheet.xlsx
+++ b/Trainingdata_sheet.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
   <si>
     <t>990 elements (max mesh size 0.09)</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Ø2</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>3 layers [2, 1 , 1 ; 2, 1, 0.4; 2,1, 0.2]</t>
   </si>
 </sst>
 </file>
@@ -711,7 +717,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,44 +1314,92 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>_16e__cell_anti_</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>2D_16e_adad_cell1_SNR20dB_50k</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>0.05</v>
+      </c>
       <c r="E20" s="1">
         <v>16</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>_16e__cell_anti_</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>3D_16e_adad_cell1_SNR20dB_50k</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>0.05</v>
+      </c>
       <c r="E21" s="1">
         <v>16</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">

--- a/Trainingdata_sheet.xlsx
+++ b/Trainingdata_sheet.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
   <si>
     <t>990 elements (max mesh size 0.09)</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>3 layers [2, 1 , 1 ; 2, 1, 0.4; 2,1, 0.2]</t>
+  </si>
+  <si>
+    <t>2D_16e_adad_cell1_SNR20dB_50k</t>
+  </si>
+  <si>
+    <t>3D_16e_adad_cell1_SNR20dB_50k</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,12 +1491,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
